--- a/Control Gastos Ingresos.xlsx
+++ b/Control Gastos Ingresos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anderson\Documents\GitHub\control_gastos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA58C156-2691-4CB9-ACC7-F62761AF981F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1AEFC95-8236-4698-B869-0D2EEE359B10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19905" windowHeight="11310" tabRatio="811" xr2:uid="{F64063DA-1201-4B5A-A6BD-9B4E14F00EBA}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="49">
   <si>
     <t>Control de gastos</t>
   </si>
@@ -1279,7 +1279,7 @@
   <dimension ref="A1:AF183"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B26" sqref="B26:B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1534,11 +1534,11 @@
       </c>
       <c r="B9" s="21">
         <f>SUMIFS(Tabla1[Valor],Tabla1[Mes],A9,Tabla1[Ingreso / Gasto / Inversión],"ingreso")</f>
-        <v>6471</v>
+        <v>0</v>
       </c>
       <c r="C9" s="22">
         <f>SUMIFS(Tabla1[Valor],Tabla1[Mes],A9,Tabla1[Ingreso / Gasto / Inversión],"gasto")</f>
-        <v>16200</v>
+        <v>50000</v>
       </c>
       <c r="D9" s="23">
         <f>SUMIFS(Tabla1[Valor],Tabla1[Mes],A9,Tabla1[Ingreso / Gasto / Inversión],"inversión")</f>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="E9" s="24">
         <f>B9-C9-D9</f>
-        <v>-9729</v>
+        <v>-50000</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
@@ -1598,584 +1598,620 @@
         <v>36</v>
       </c>
       <c r="F13" s="17">
-        <v>500000</v>
+        <v>100000</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
-        <v>45379</v>
+        <v>45410</v>
       </c>
       <c r="B14" s="19" t="str">
         <f>IF(Tabla1[[#This Row],[Fecha]]="","-",TEXT(Tabla1[[#This Row],[Fecha]],"MMMM"))</f>
-        <v>marzo</v>
+        <v>abril</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="F14" s="17">
-        <v>25000</v>
+        <v>50000</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
-        <v>45381</v>
+        <v>45442</v>
       </c>
       <c r="B15" s="19" t="str">
         <f>IF(Tabla1[[#This Row],[Fecha]]="","-",TEXT(Tabla1[[#This Row],[Fecha]],"MMMM"))</f>
-        <v>marzo</v>
+        <v>mayo</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="F15" s="18">
-        <v>500000</v>
+        <v>50000</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
-        <v>45383</v>
-      </c>
+      <c r="A16" s="5"/>
       <c r="B16" s="19" t="str">
         <f>IF(Tabla1[[#This Row],[Fecha]]="","-",TEXT(Tabla1[[#This Row],[Fecha]],"MMMM"))</f>
-        <v>abril</v>
-      </c>
-      <c r="C16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" s="18">
-        <v>4000</v>
-      </c>
+        <v>-</v>
+      </c>
+      <c r="F16" s="18"/>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
-        <v>45017</v>
-      </c>
+      <c r="A17" s="5"/>
       <c r="B17" s="19" t="str">
         <f>IF(Tabla1[[#This Row],[Fecha]]="","-",TEXT(Tabla1[[#This Row],[Fecha]],"MMMM"))</f>
-        <v>abril</v>
-      </c>
-      <c r="C17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="17">
-        <v>10200</v>
-      </c>
+        <v>-</v>
+      </c>
+      <c r="F17" s="17"/>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
-        <v>45383</v>
-      </c>
+      <c r="A18" s="5"/>
       <c r="B18" s="19" t="str">
         <f>IF(Tabla1[[#This Row],[Fecha]]="","-",TEXT(Tabla1[[#This Row],[Fecha]],"MMMM"))</f>
-        <v>abril</v>
-      </c>
-      <c r="C18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" t="s">
-        <v>39</v>
-      </c>
-      <c r="F18" s="17">
-        <f>58.75+16.25+6396</f>
-        <v>6471</v>
-      </c>
+        <v>-</v>
+      </c>
+      <c r="F18" s="17"/>
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
-        <v>45384</v>
-      </c>
+      <c r="A19" s="5"/>
       <c r="B19" s="19" t="str">
         <f>IF(Tabla1[[#This Row],[Fecha]]="","-",TEXT(Tabla1[[#This Row],[Fecha]],"MMMM"))</f>
-        <v>abril</v>
-      </c>
-      <c r="C19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="17">
-        <v>2000</v>
-      </c>
+        <v>-</v>
+      </c>
+      <c r="F19" s="17"/>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
-        <v>45422</v>
-      </c>
+      <c r="A20" s="5"/>
       <c r="B20" s="5" t="str">
         <f>IF(Tabla1[[#This Row],[Fecha]]="","-",TEXT(Tabla1[[#This Row],[Fecha]],"MMMM"))</f>
-        <v>mayo</v>
-      </c>
-      <c r="C20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" t="s">
-        <v>36</v>
-      </c>
-      <c r="F20" s="25">
-        <v>45000</v>
-      </c>
+        <v>-</v>
+      </c>
+      <c r="F20" s="25"/>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
-        <v>45423</v>
-      </c>
+      <c r="A21" s="5"/>
       <c r="B21" s="5" t="str">
         <f>IF(Tabla1[[#This Row],[Fecha]]="","-",TEXT(Tabla1[[#This Row],[Fecha]],"MMMM"))</f>
-        <v>mayo</v>
-      </c>
-      <c r="C21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="25">
-        <v>6000</v>
-      </c>
+        <v>-</v>
+      </c>
+      <c r="F21" s="25"/>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
-        <v>45423</v>
-      </c>
+      <c r="A22" s="5"/>
       <c r="B22" s="5" t="str">
         <f>IF(Tabla1[[#This Row],[Fecha]]="","-",TEXT(Tabla1[[#This Row],[Fecha]],"MMMM"))</f>
-        <v>mayo</v>
-      </c>
-      <c r="C22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" t="s">
-        <v>40</v>
-      </c>
-      <c r="F22" s="25">
-        <v>5000</v>
-      </c>
+        <v>-</v>
+      </c>
+      <c r="F22" s="25"/>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
-        <v>45423</v>
-      </c>
+      <c r="A23" s="5"/>
       <c r="B23" s="5" t="str">
         <f>IF(Tabla1[[#This Row],[Fecha]]="","-",TEXT(Tabla1[[#This Row],[Fecha]],"MMMM"))</f>
-        <v>mayo</v>
-      </c>
-      <c r="C23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="25">
-        <v>5000</v>
-      </c>
+        <v>-</v>
+      </c>
+      <c r="F23" s="25"/>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
-        <v>45425</v>
-      </c>
+      <c r="A24" s="5"/>
       <c r="B24" s="5" t="str">
         <f>IF(Tabla1[[#This Row],[Fecha]]="","-",TEXT(Tabla1[[#This Row],[Fecha]],"MMMM"))</f>
-        <v>mayo</v>
-      </c>
-      <c r="C24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" s="25">
-        <v>4500</v>
-      </c>
+        <v>-</v>
+      </c>
+      <c r="F24" s="25"/>
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
-        <v>45426</v>
-      </c>
+      <c r="A25" s="5"/>
       <c r="B25" s="5" t="str">
         <f>IF(Tabla1[[#This Row],[Fecha]]="","-",TEXT(Tabla1[[#This Row],[Fecha]],"MMMM"))</f>
-        <v>mayo</v>
-      </c>
-      <c r="C25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="25">
-        <v>2400</v>
-      </c>
+        <v>-</v>
+      </c>
+      <c r="F25" s="25"/>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
-        <v>45427</v>
-      </c>
+      <c r="A26" s="5"/>
       <c r="B26" s="5" t="str">
         <f>IF(Tabla1[[#This Row],[Fecha]]="","-",TEXT(Tabla1[[#This Row],[Fecha]],"MMMM"))</f>
-        <v>mayo</v>
-      </c>
-      <c r="C26" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26" s="25">
-        <v>8000</v>
-      </c>
+        <v>-</v>
+      </c>
+      <c r="F26" s="25"/>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
+      <c r="B27" s="5" t="str">
+        <f>IF(Tabla1[[#This Row],[Fecha]]="","-",TEXT(Tabla1[[#This Row],[Fecha]],"MMMM"))</f>
+        <v>-</v>
+      </c>
       <c r="F27" s="25"/>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
+      <c r="B28" s="5" t="str">
+        <f>IF(Tabla1[[#This Row],[Fecha]]="","-",TEXT(Tabla1[[#This Row],[Fecha]],"MMMM"))</f>
+        <v>-</v>
+      </c>
       <c r="F28" s="25"/>
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
+      <c r="B29" s="5" t="str">
+        <f>IF(Tabla1[[#This Row],[Fecha]]="","-",TEXT(Tabla1[[#This Row],[Fecha]],"MMMM"))</f>
+        <v>-</v>
+      </c>
       <c r="F29" s="17"/>
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
+      <c r="B30" s="5" t="str">
+        <f>IF(Tabla1[[#This Row],[Fecha]]="","-",TEXT(Tabla1[[#This Row],[Fecha]],"MMMM"))</f>
+        <v>-</v>
+      </c>
       <c r="F30" s="17"/>
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
+      <c r="B31" s="5" t="str">
+        <f>IF(Tabla1[[#This Row],[Fecha]]="","-",TEXT(Tabla1[[#This Row],[Fecha]],"MMMM"))</f>
+        <v>-</v>
+      </c>
       <c r="F31" s="17"/>
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
+      <c r="B32" s="5" t="str">
+        <f>IF(Tabla1[[#This Row],[Fecha]]="","-",TEXT(Tabla1[[#This Row],[Fecha]],"MMMM"))</f>
+        <v>-</v>
+      </c>
       <c r="F32" s="17"/>
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
+      <c r="B33" s="5" t="str">
+        <f>IF(Tabla1[[#This Row],[Fecha]]="","-",TEXT(Tabla1[[#This Row],[Fecha]],"MMMM"))</f>
+        <v>-</v>
+      </c>
       <c r="F33" s="17"/>
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
+      <c r="B34" s="5" t="str">
+        <f>IF(Tabla1[[#This Row],[Fecha]]="","-",TEXT(Tabla1[[#This Row],[Fecha]],"MMMM"))</f>
+        <v>-</v>
+      </c>
       <c r="F34" s="17"/>
       <c r="G34" s="10"/>
       <c r="H34" s="10"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
+      <c r="B35" s="5" t="str">
+        <f>IF(Tabla1[[#This Row],[Fecha]]="","-",TEXT(Tabla1[[#This Row],[Fecha]],"MMMM"))</f>
+        <v>-</v>
+      </c>
       <c r="F35" s="17"/>
       <c r="G35" s="10"/>
       <c r="H35" s="10"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
+      <c r="B36" s="5" t="str">
+        <f>IF(Tabla1[[#This Row],[Fecha]]="","-",TEXT(Tabla1[[#This Row],[Fecha]],"MMMM"))</f>
+        <v>-</v>
+      </c>
       <c r="F36" s="17"/>
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
+      <c r="B37" s="5" t="str">
+        <f>IF(Tabla1[[#This Row],[Fecha]]="","-",TEXT(Tabla1[[#This Row],[Fecha]],"MMMM"))</f>
+        <v>-</v>
+      </c>
       <c r="F37" s="17"/>
       <c r="G37" s="10"/>
       <c r="H37" s="10"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
+      <c r="B38" s="5" t="str">
+        <f>IF(Tabla1[[#This Row],[Fecha]]="","-",TEXT(Tabla1[[#This Row],[Fecha]],"MMMM"))</f>
+        <v>-</v>
+      </c>
       <c r="F38" s="17"/>
       <c r="G38" s="10"/>
       <c r="H38" s="10"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
+      <c r="B39" s="5" t="str">
+        <f>IF(Tabla1[[#This Row],[Fecha]]="","-",TEXT(Tabla1[[#This Row],[Fecha]],"MMMM"))</f>
+        <v>-</v>
+      </c>
       <c r="F39" s="17"/>
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
+      <c r="B40" s="5" t="str">
+        <f>IF(Tabla1[[#This Row],[Fecha]]="","-",TEXT(Tabla1[[#This Row],[Fecha]],"MMMM"))</f>
+        <v>-</v>
+      </c>
       <c r="F40" s="17"/>
       <c r="G40" s="10"/>
       <c r="H40" s="10"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
+      <c r="B41" s="5" t="str">
+        <f>IF(Tabla1[[#This Row],[Fecha]]="","-",TEXT(Tabla1[[#This Row],[Fecha]],"MMMM"))</f>
+        <v>-</v>
+      </c>
       <c r="F41" s="17"/>
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
+      <c r="B42" s="5" t="str">
+        <f>IF(Tabla1[[#This Row],[Fecha]]="","-",TEXT(Tabla1[[#This Row],[Fecha]],"MMMM"))</f>
+        <v>-</v>
+      </c>
       <c r="F42" s="17"/>
       <c r="G42" s="10"/>
       <c r="H42" s="10"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
+      <c r="B43" s="5" t="str">
+        <f>IF(Tabla1[[#This Row],[Fecha]]="","-",TEXT(Tabla1[[#This Row],[Fecha]],"MMMM"))</f>
+        <v>-</v>
+      </c>
       <c r="F43" s="17"/>
       <c r="G43" s="10"/>
       <c r="H43" s="10"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
+      <c r="B44" s="5" t="str">
+        <f>IF(Tabla1[[#This Row],[Fecha]]="","-",TEXT(Tabla1[[#This Row],[Fecha]],"MMMM"))</f>
+        <v>-</v>
+      </c>
       <c r="F44" s="17"/>
       <c r="G44" s="10"/>
       <c r="H44" s="10"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
+      <c r="B45" s="5" t="str">
+        <f>IF(Tabla1[[#This Row],[Fecha]]="","-",TEXT(Tabla1[[#This Row],[Fecha]],"MMMM"))</f>
+        <v>-</v>
+      </c>
       <c r="F45" s="17"/>
       <c r="G45" s="10"/>
       <c r="H45" s="10"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
+      <c r="B46" s="5" t="str">
+        <f>IF(Tabla1[[#This Row],[Fecha]]="","-",TEXT(Tabla1[[#This Row],[Fecha]],"MMMM"))</f>
+        <v>-</v>
+      </c>
       <c r="F46" s="17"/>
       <c r="G46" s="10"/>
       <c r="H46" s="10"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
-      <c r="B47" s="5"/>
+      <c r="B47" s="5" t="str">
+        <f>IF(Tabla1[[#This Row],[Fecha]]="","-",TEXT(Tabla1[[#This Row],[Fecha]],"MMMM"))</f>
+        <v>-</v>
+      </c>
       <c r="F47" s="17"/>
       <c r="G47" s="10"/>
       <c r="H47" s="10"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
-      <c r="B48" s="5"/>
+      <c r="B48" s="5" t="str">
+        <f>IF(Tabla1[[#This Row],[Fecha]]="","-",TEXT(Tabla1[[#This Row],[Fecha]],"MMMM"))</f>
+        <v>-</v>
+      </c>
       <c r="F48" s="25"/>
       <c r="G48" s="10"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
-      <c r="B49" s="5"/>
+      <c r="B49" s="5" t="str">
+        <f>IF(Tabla1[[#This Row],[Fecha]]="","-",TEXT(Tabla1[[#This Row],[Fecha]],"MMMM"))</f>
+        <v>-</v>
+      </c>
       <c r="F49" s="25"/>
       <c r="G49" s="10"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
-      <c r="B50" s="5"/>
+      <c r="B50" s="5" t="str">
+        <f>IF(Tabla1[[#This Row],[Fecha]]="","-",TEXT(Tabla1[[#This Row],[Fecha]],"MMMM"))</f>
+        <v>-</v>
+      </c>
       <c r="F50" s="25"/>
       <c r="G50" s="10"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="5"/>
-      <c r="B51" s="5"/>
+      <c r="B51" s="5" t="str">
+        <f>IF(Tabla1[[#This Row],[Fecha]]="","-",TEXT(Tabla1[[#This Row],[Fecha]],"MMMM"))</f>
+        <v>-</v>
+      </c>
       <c r="F51" s="25"/>
       <c r="G51" s="10"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="5"/>
-      <c r="B52" s="5"/>
+      <c r="B52" s="5" t="str">
+        <f>IF(Tabla1[[#This Row],[Fecha]]="","-",TEXT(Tabla1[[#This Row],[Fecha]],"MMMM"))</f>
+        <v>-</v>
+      </c>
       <c r="F52" s="25"/>
       <c r="G52" s="10"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="5"/>
-      <c r="B53" s="5"/>
+      <c r="B53" s="5" t="str">
+        <f>IF(Tabla1[[#This Row],[Fecha]]="","-",TEXT(Tabla1[[#This Row],[Fecha]],"MMMM"))</f>
+        <v>-</v>
+      </c>
       <c r="F53" s="25"/>
       <c r="G53" s="10"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="5"/>
-      <c r="B54" s="5"/>
+      <c r="B54" s="5" t="str">
+        <f>IF(Tabla1[[#This Row],[Fecha]]="","-",TEXT(Tabla1[[#This Row],[Fecha]],"MMMM"))</f>
+        <v>-</v>
+      </c>
       <c r="F54" s="25"/>
       <c r="G54" s="10"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="5"/>
-      <c r="B55" s="5"/>
+      <c r="B55" s="5" t="str">
+        <f>IF(Tabla1[[#This Row],[Fecha]]="","-",TEXT(Tabla1[[#This Row],[Fecha]],"MMMM"))</f>
+        <v>-</v>
+      </c>
       <c r="F55" s="25"/>
       <c r="G55" s="10"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="5"/>
-      <c r="B56" s="5"/>
+      <c r="B56" s="5" t="str">
+        <f>IF(Tabla1[[#This Row],[Fecha]]="","-",TEXT(Tabla1[[#This Row],[Fecha]],"MMMM"))</f>
+        <v>-</v>
+      </c>
       <c r="F56" s="25"/>
       <c r="G56" s="10"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="5"/>
-      <c r="B57" s="5"/>
+      <c r="B57" s="5" t="str">
+        <f>IF(Tabla1[[#This Row],[Fecha]]="","-",TEXT(Tabla1[[#This Row],[Fecha]],"MMMM"))</f>
+        <v>-</v>
+      </c>
       <c r="F57" s="25"/>
       <c r="G57" s="10"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="5"/>
-      <c r="B58" s="5"/>
+      <c r="B58" s="5" t="str">
+        <f>IF(Tabla1[[#This Row],[Fecha]]="","-",TEXT(Tabla1[[#This Row],[Fecha]],"MMMM"))</f>
+        <v>-</v>
+      </c>
       <c r="F58" s="25"/>
       <c r="G58" s="10"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="5"/>
-      <c r="B59" s="5"/>
+      <c r="B59" s="5" t="str">
+        <f>IF(Tabla1[[#This Row],[Fecha]]="","-",TEXT(Tabla1[[#This Row],[Fecha]],"MMMM"))</f>
+        <v>-</v>
+      </c>
       <c r="F59" s="25"/>
       <c r="G59" s="10"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
-      <c r="B60" s="5"/>
+      <c r="B60" s="5" t="str">
+        <f>IF(Tabla1[[#This Row],[Fecha]]="","-",TEXT(Tabla1[[#This Row],[Fecha]],"MMMM"))</f>
+        <v>-</v>
+      </c>
       <c r="F60" s="25"/>
       <c r="G60" s="10"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="5"/>
-      <c r="B61" s="5"/>
+      <c r="B61" s="5" t="str">
+        <f>IF(Tabla1[[#This Row],[Fecha]]="","-",TEXT(Tabla1[[#This Row],[Fecha]],"MMMM"))</f>
+        <v>-</v>
+      </c>
       <c r="F61" s="25"/>
       <c r="G61" s="10"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="5"/>
-      <c r="B62" s="5"/>
+      <c r="B62" s="5" t="str">
+        <f>IF(Tabla1[[#This Row],[Fecha]]="","-",TEXT(Tabla1[[#This Row],[Fecha]],"MMMM"))</f>
+        <v>-</v>
+      </c>
       <c r="F62" s="25"/>
       <c r="G62" s="10"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="5"/>
-      <c r="B63" s="5"/>
+      <c r="B63" s="5" t="str">
+        <f>IF(Tabla1[[#This Row],[Fecha]]="","-",TEXT(Tabla1[[#This Row],[Fecha]],"MMMM"))</f>
+        <v>-</v>
+      </c>
       <c r="F63" s="25"/>
       <c r="G63" s="10"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="5"/>
-      <c r="B64" s="5"/>
+      <c r="B64" s="5" t="str">
+        <f>IF(Tabla1[[#This Row],[Fecha]]="","-",TEXT(Tabla1[[#This Row],[Fecha]],"MMMM"))</f>
+        <v>-</v>
+      </c>
       <c r="F64" s="25"/>
       <c r="G64" s="10"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="5"/>
-      <c r="B65" s="5"/>
+      <c r="B65" s="5" t="str">
+        <f>IF(Tabla1[[#This Row],[Fecha]]="","-",TEXT(Tabla1[[#This Row],[Fecha]],"MMMM"))</f>
+        <v>-</v>
+      </c>
       <c r="F65" s="25"/>
       <c r="G65" s="10"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="5"/>
-      <c r="B66" s="5"/>
+      <c r="B66" s="5" t="str">
+        <f>IF(Tabla1[[#This Row],[Fecha]]="","-",TEXT(Tabla1[[#This Row],[Fecha]],"MMMM"))</f>
+        <v>-</v>
+      </c>
       <c r="F66" s="25"/>
       <c r="G66" s="10"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="5"/>
-      <c r="B67" s="5"/>
+      <c r="B67" s="5" t="str">
+        <f>IF(Tabla1[[#This Row],[Fecha]]="","-",TEXT(Tabla1[[#This Row],[Fecha]],"MMMM"))</f>
+        <v>-</v>
+      </c>
       <c r="F67" s="25"/>
       <c r="G67" s="10"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="5"/>
-      <c r="B68" s="5"/>
+      <c r="B68" s="5" t="str">
+        <f>IF(Tabla1[[#This Row],[Fecha]]="","-",TEXT(Tabla1[[#This Row],[Fecha]],"MMMM"))</f>
+        <v>-</v>
+      </c>
       <c r="F68" s="25"/>
       <c r="G68" s="10"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="5"/>
-      <c r="B69" s="5"/>
+      <c r="B69" s="5" t="str">
+        <f>IF(Tabla1[[#This Row],[Fecha]]="","-",TEXT(Tabla1[[#This Row],[Fecha]],"MMMM"))</f>
+        <v>-</v>
+      </c>
       <c r="F69" s="25"/>
       <c r="G69" s="10"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="5"/>
-      <c r="B70" s="5"/>
+      <c r="B70" s="5" t="str">
+        <f>IF(Tabla1[[#This Row],[Fecha]]="","-",TEXT(Tabla1[[#This Row],[Fecha]],"MMMM"))</f>
+        <v>-</v>
+      </c>
       <c r="F70" s="25"/>
       <c r="G70" s="10"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="5"/>
-      <c r="B71" s="5"/>
+      <c r="B71" s="5" t="str">
+        <f>IF(Tabla1[[#This Row],[Fecha]]="","-",TEXT(Tabla1[[#This Row],[Fecha]],"MMMM"))</f>
+        <v>-</v>
+      </c>
       <c r="F71" s="25"/>
       <c r="G71" s="10"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="5"/>
-      <c r="B72" s="5"/>
+      <c r="B72" s="5" t="str">
+        <f>IF(Tabla1[[#This Row],[Fecha]]="","-",TEXT(Tabla1[[#This Row],[Fecha]],"MMMM"))</f>
+        <v>-</v>
+      </c>
       <c r="F72" s="25"/>
       <c r="G72" s="10"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="5"/>
-      <c r="B73" s="5"/>
+      <c r="B73" s="5" t="str">
+        <f>IF(Tabla1[[#This Row],[Fecha]]="","-",TEXT(Tabla1[[#This Row],[Fecha]],"MMMM"))</f>
+        <v>-</v>
+      </c>
       <c r="F73" s="25"/>
       <c r="G73" s="10"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="5"/>
-      <c r="B74" s="5"/>
+      <c r="B74" s="5" t="str">
+        <f>IF(Tabla1[[#This Row],[Fecha]]="","-",TEXT(Tabla1[[#This Row],[Fecha]],"MMMM"))</f>
+        <v>-</v>
+      </c>
       <c r="F74" s="25"/>
       <c r="G74" s="10"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="5"/>
-      <c r="B75" s="5"/>
+      <c r="B75" s="5" t="str">
+        <f>IF(Tabla1[[#This Row],[Fecha]]="","-",TEXT(Tabla1[[#This Row],[Fecha]],"MMMM"))</f>
+        <v>-</v>
+      </c>
       <c r="F75" s="25"/>
       <c r="G75" s="10"/>
     </row>
